--- a/How-To.xlsx
+++ b/How-To.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c_akong\projects\howto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="26145" windowHeight="6285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19575" windowHeight="6285" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MISC" sheetId="1" r:id="rId1"/>
@@ -13,13 +18,16 @@
     <sheet name="mysql" sheetId="4" r:id="rId4"/>
     <sheet name="ubuntu" sheetId="5" r:id="rId5"/>
     <sheet name="android" sheetId="6" r:id="rId6"/>
+    <sheet name="adb-fastboot" sheetId="7" r:id="rId7"/>
+    <sheet name="kernel-dbg" sheetId="8" r:id="rId8"/>
+    <sheet name="make kernel" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="177">
   <si>
     <t>dump include info junk.i</t>
   </si>
@@ -126,9 +134,6 @@
     <t>display 5 entries</t>
   </si>
   <si>
-    <t>git log --stat</t>
-  </si>
-  <si>
     <t>git tag -a/--anatate bckong-1.0 ref</t>
   </si>
   <si>
@@ -289,24 +294,310 @@
   </si>
   <si>
     <t>make goldfish_arm7_defconfig</t>
+  </si>
+  <si>
+    <t>git fetch remote master</t>
+  </si>
+  <si>
+    <t>git merge FETCH_HEAD</t>
+  </si>
+  <si>
+    <t>git log --pretty --stat</t>
+  </si>
+  <si>
+    <t>git log --pretty="%s %h" --graph</t>
+  </si>
+  <si>
+    <t>find ./ -mmin -5</t>
+  </si>
+  <si>
+    <t>find the files modifed in last 5 mi</t>
+  </si>
+  <si>
+    <t>git cat-file -p HEAD</t>
+  </si>
+  <si>
+    <t>git cat-file -p HEAD:</t>
+  </si>
+  <si>
+    <t>show files wit blob/hash (unique ID for the content)</t>
+  </si>
+  <si>
+    <t>git diff --name-only --diff-filter=U</t>
+  </si>
+  <si>
+    <t>find unmerged files</t>
+  </si>
+  <si>
+    <t>find unmerged files -u</t>
+  </si>
+  <si>
+    <t>git log --graph --oneline --decorate</t>
+  </si>
+  <si>
+    <t>adb kill-server</t>
+  </si>
+  <si>
+    <t>adb start-server</t>
+  </si>
+  <si>
+    <t>adb reboot</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>reboot the device</t>
+  </si>
+  <si>
+    <t>hexdump -e '"0x%08X\n" filename.bin</t>
+  </si>
+  <si>
+    <t>adb shell find / -name "firmware"</t>
+  </si>
+  <si>
+    <t>git log --date=relative --abbrev-commit</t>
+  </si>
+  <si>
+    <t>git log --stat --all</t>
+  </si>
+  <si>
+    <t>git show HASH</t>
+  </si>
+  <si>
+    <t>display file content</t>
+  </si>
+  <si>
+    <t>git config merge.conflictstyle diff3</t>
+  </si>
+  <si>
+    <t>git mergetool --tool-help</t>
+  </si>
+  <si>
+    <t>what merge tool supported</t>
+  </si>
+  <si>
+    <t>git config merge.tool gvmdiff</t>
+  </si>
+  <si>
+    <t>git mergetool</t>
+  </si>
+  <si>
+    <t>invoke merge tool</t>
+  </si>
+  <si>
+    <t>git reste HEAD~</t>
+  </si>
+  <si>
+    <t>undo the last commit</t>
+  </si>
+  <si>
+    <t>git --cached --name-only</t>
+  </si>
+  <si>
+    <t>show new added files</t>
+  </si>
+  <si>
+    <t>adb pull /var/log/dmesg ./</t>
+  </si>
+  <si>
+    <t>/dev/kmsg</t>
+  </si>
+  <si>
+    <t>enable dmesg timestamps</t>
+  </si>
+  <si>
+    <t>echo Y /sys/module/printk/parameters/time</t>
+  </si>
+  <si>
+    <t>echo Y | tee /sys/module/printk/parameters/time</t>
+  </si>
+  <si>
+    <t>/var/log/dmesg</t>
+  </si>
+  <si>
+    <t>N:log level s:second m:micro second</t>
+  </si>
+  <si>
+    <t>&lt;N&gt;[s.m]</t>
+  </si>
+  <si>
+    <t>&lt;4&gt;107.245076</t>
+  </si>
+  <si>
+    <t>107 second 245 ms(milliseconds)</t>
+  </si>
+  <si>
+    <t>git rev-parse HEAD</t>
+  </si>
+  <si>
+    <t>current revision</t>
+  </si>
+  <si>
+    <t>git describe --tag</t>
+  </si>
+  <si>
+    <t>clone a specific branch</t>
+  </si>
+  <si>
+    <t>git clone -b branch_nm https://xxx/project.git</t>
+  </si>
+  <si>
+    <t>git clone -b branch --single-branch https://xxx/xx.git</t>
+  </si>
+  <si>
+    <t>git 1.7+ revision</t>
+  </si>
+  <si>
+    <t>git branch -d name</t>
+  </si>
+  <si>
+    <t>delete branch</t>
+  </si>
+  <si>
+    <t>git branch  --merged/--no-merged</t>
+  </si>
+  <si>
+    <t>show merged/not branches into the current branch you are on</t>
+  </si>
+  <si>
+    <t>make savedefconfig</t>
+  </si>
+  <si>
+    <t>convert .config to defconfig</t>
+  </si>
+  <si>
+    <t>make config</t>
+  </si>
+  <si>
+    <t>plain text interface</t>
+  </si>
+  <si>
+    <t>make menuconfig</t>
+  </si>
+  <si>
+    <t>text-based with colored menus</t>
+  </si>
+  <si>
+    <t>make nconfig</t>
+  </si>
+  <si>
+    <t>text-based colored menus</t>
+  </si>
+  <si>
+    <t>make xconfig</t>
+  </si>
+  <si>
+    <t>make gconfig</t>
+  </si>
+  <si>
+    <t>QT/X based</t>
+  </si>
+  <si>
+    <t>Gtk-X based</t>
+  </si>
+  <si>
+    <t>make defconfig</t>
+  </si>
+  <si>
+    <t>creates a config uses default settings</t>
+  </si>
+  <si>
+    <t>make ARCH=x86_64 defconfig</t>
+  </si>
+  <si>
+    <t>make ARCH=arm CROSS_COMPILE=/usr/local/bin/arm-linux-</t>
+  </si>
+  <si>
+    <t>strace -e open make menuconfig</t>
+  </si>
+  <si>
+    <t>strace -o log.txt make menuconfig</t>
+  </si>
+  <si>
+    <t>make default config (arch/arm64/configs/default_file</t>
+  </si>
+  <si>
+    <t>ARCH=arm64 make defconfig</t>
+  </si>
+  <si>
+    <t>ARCH=arm64 make mediabox-perf_defconfig</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>expor ARCH=arm64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) </t>
+  </si>
+  <si>
+    <t>example:</t>
+  </si>
+  <si>
+    <t>2) arch/arm64/configs/some_defconfg</t>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>make some_defconfig/make ARCH=arm64 some_defconfig</t>
+  </si>
+  <si>
+    <t>git branch -a</t>
+  </si>
+  <si>
+    <t>all local branches + remote branches</t>
+  </si>
+  <si>
+    <t>only remote branches</t>
+  </si>
+  <si>
+    <t>git branch -v/vv</t>
+  </si>
+  <si>
+    <t>verbose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,152 +608,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,192 +618,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -664,349 +631,103 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19685</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:rowOff>162561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>734060</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95885</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image result"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image result">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:link="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7573010" y="323850"/>
-          <a:ext cx="4143375" cy="4143375"/>
+          <a:off x="5306060" y="353061"/>
+          <a:ext cx="2418715" cy="3968446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1020,6 +741,128 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2180</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image result for git reset">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAEFF3C-F49A-468E-AA5D-0CFA34E841F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8288930" y="485776"/>
+          <a:ext cx="4226919" cy="2466974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>516046</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>81319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Image result for git reset">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D7BC5C-A1FF-4A91-A65C-828088E572E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8802796" y="2771775"/>
+          <a:ext cx="3732103" cy="3405544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1028,7 +871,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1309,120 +1152,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B3:C40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="123.713333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.2" customWidth="1"/>
+    <col min="2" max="2" width="108.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:3" ht="30">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:3">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="25.5" spans="2:2">
+    <row r="8" spans="2:3" ht="30">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:3">
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:3">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="2:3">
       <c r="B14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="2:3">
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
+    <row r="16" spans="2:3">
+      <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:3">
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:3">
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:3">
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:3">
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:3">
       <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:3">
       <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:3">
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:3">
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" ht="25.5" spans="2:3">
+    <row r="27" spans="2:3" ht="30">
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1430,52 +1272,52 @@
       <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:3">
       <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:3">
       <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:3">
       <c r="B35" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:3">
       <c r="B36" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:3">
       <c r="B38" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="3:3">
-      <c r="C39" t="s">
+    <row r="39" spans="2:3">
+      <c r="C39" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1483,376 +1325,825 @@
       <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="42" spans="2:3" ht="30">
+      <c r="B42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B4:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="35.2" customWidth="1"/>
-    <col min="3" max="3" width="26.1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+    <row r="6" spans="2:3">
+      <c r="B6" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
+      <c r="C21" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
+      <c r="C22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="C23" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="30">
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32">
+        <v>11520</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f>(D32*E32)</f>
+        <v>23040</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="30">
+      <c r="B51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="42.7" customWidth="1"/>
-    <col min="3" max="3" width="19.6" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
         <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
         <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
         <v>65</v>
       </c>
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="51.8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="30">
+      <c r="B7" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" ht="25.5" spans="2:2">
-      <c r="B7" s="1" t="s">
+    <row r="9" spans="2:2" ht="30">
+      <c r="B9" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B3:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="70.1" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.8" style="1"/>
+    <col min="2" max="2" width="70.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="57.2" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:4">
       <c r="C3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="3:4" ht="30">
+      <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="3:4">
+      <c r="C5" s="1" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+    <row r="10" spans="3:4">
+      <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="1" t="s">
+    <row r="12" spans="3:4">
+      <c r="C12" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" s="1" t="s">
+    <row r="13" spans="3:4">
+      <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="48" style="5" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4">
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="53.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4">
+      <c r="C4" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="18" customHeight="1">
+      <c r="C6" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="60.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="30">
+      <c r="B10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="30">
+      <c r="B16" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/How-To.xlsx
+++ b/How-To.xlsx
@@ -9,25 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19575" windowHeight="6285" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="6285"/>
   </bookViews>
   <sheets>
     <sheet name="MISC" sheetId="1" r:id="rId1"/>
     <sheet name="git" sheetId="2" r:id="rId2"/>
-    <sheet name="gdb" sheetId="3" r:id="rId3"/>
-    <sheet name="mysql" sheetId="4" r:id="rId4"/>
-    <sheet name="ubuntu" sheetId="5" r:id="rId5"/>
-    <sheet name="android" sheetId="6" r:id="rId6"/>
-    <sheet name="adb-fastboot" sheetId="7" r:id="rId7"/>
-    <sheet name="kernel-dbg" sheetId="8" r:id="rId8"/>
-    <sheet name="make kernel" sheetId="9" r:id="rId9"/>
+    <sheet name="how git works" sheetId="11" r:id="rId3"/>
+    <sheet name="gdb" sheetId="3" r:id="rId4"/>
+    <sheet name="mysql" sheetId="4" r:id="rId5"/>
+    <sheet name="ubuntu" sheetId="5" r:id="rId6"/>
+    <sheet name="android" sheetId="6" r:id="rId7"/>
+    <sheet name="adb-fastboot" sheetId="7" r:id="rId8"/>
+    <sheet name="kernel-dbg" sheetId="8" r:id="rId9"/>
+    <sheet name="make kernel" sheetId="9" r:id="rId10"/>
+    <sheet name="yocto" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="244">
   <si>
     <t>dump include info junk.i</t>
   </si>
@@ -558,18 +560,264 @@
   </si>
   <si>
     <t>verbose</t>
+  </si>
+  <si>
+    <t>git checkout -b LNX.LE.6.0 origin/LNX.LE.6.0</t>
+  </si>
+  <si>
+    <t>remote/origin/LNX.LE.6.0 (git branch -r)</t>
+  </si>
+  <si>
+    <t>git archive HEAD(HASH) --format=zip &gt; file.zip</t>
+  </si>
+  <si>
+    <t>goldfish cross compile</t>
+  </si>
+  <si>
+    <t>export PATH=/prebuilt/linux-x86/toolchain/arm-eabi-4.4.3/bin/:$PATH</t>
+  </si>
+  <si>
+    <t>make ARCH=arm goldfish_armv7_defconfig</t>
+  </si>
+  <si>
+    <r>
+      <t>CROSS_COMPILE=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/prebuilt/linux-x86/toolchain/arm-eabi-4.4.3/bin/arm-eabi- ARCH=arm make</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>export ANDROID_PRODUCT_OUT=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/out/target/product/generic/</t>
+    </r>
+  </si>
+  <si>
+    <t>git rev-parse HEAD/ --verify HEAD</t>
+  </si>
+  <si>
+    <t>show current commit</t>
+  </si>
+  <si>
+    <t>view current commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git show || git log -1 | git status || </t>
+  </si>
+  <si>
+    <t>git checkout v1.2</t>
+  </si>
+  <si>
+    <t>checkout local tag</t>
+  </si>
+  <si>
+    <t>git config --global diff.tool=vimdiff</t>
+  </si>
+  <si>
+    <t>git difftool</t>
+  </si>
+  <si>
+    <t>config tool</t>
+  </si>
+  <si>
+    <t>show tools</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Descriptions</t>
+  </si>
+  <si>
+    <t>lots of debug info</t>
+  </si>
+  <si>
+    <t>bibake -DDD</t>
+  </si>
+  <si>
+    <t>bitbake -s</t>
+  </si>
+  <si>
+    <t>recipe version</t>
+  </si>
+  <si>
+    <t>bitbake -c</t>
+  </si>
+  <si>
+    <t>execute task for the image/recipe being built</t>
+  </si>
+  <si>
+    <t>option -g</t>
+  </si>
+  <si>
+    <t>output dependency tree</t>
+  </si>
+  <si>
+    <t>git tag -d tagname</t>
+  </si>
+  <si>
+    <t>delete tag</t>
+  </si>
+  <si>
+    <t>git diff --name-only SHA1 SHA2</t>
+  </si>
+  <si>
+    <t>git log --pretty=oneline</t>
+  </si>
+  <si>
+    <t>git log --pretty=format:"%h/H -- %cd %cn : %s"</t>
+  </si>
+  <si>
+    <t>%h abbreviated hash</t>
+  </si>
+  <si>
+    <t>%H long hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%cn commit name </t>
+  </si>
+  <si>
+    <t>%s subject</t>
+  </si>
+  <si>
+    <t>%cd commit date</t>
+  </si>
+  <si>
+    <t>%an author name</t>
+  </si>
+  <si>
+    <t>git log -p -2</t>
+  </si>
+  <si>
+    <t>option -p show diff introduced in each commit</t>
+  </si>
+  <si>
+    <t>git show hash:filename &gt; file</t>
+  </si>
+  <si>
+    <t>cat file | git hash-object --stdin</t>
+  </si>
+  <si>
+    <t>cal sha and print out to stdin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat file | shasum </t>
+  </si>
+  <si>
+    <t>printf "blob 0\0" | shasum</t>
+  </si>
+  <si>
+    <t>"blob size\0"</t>
+  </si>
+  <si>
+    <t>git cat-file -t SHA</t>
+  </si>
+  <si>
+    <t>option -t only show type</t>
+  </si>
+  <si>
+    <t>git cat-file -p SHA</t>
+  </si>
+  <si>
+    <t>pretty-print the contents of obj based on type</t>
+  </si>
+  <si>
+    <t>git cat-file -s SHA</t>
+  </si>
+  <si>
+    <t>object/file size</t>
+  </si>
+  <si>
+    <t>git config --global core.editor "vim"</t>
+  </si>
+  <si>
+    <t>git cat-file tag tag_name</t>
+  </si>
+  <si>
+    <t>dict A</t>
+  </si>
+  <si>
+    <t>README</t>
+  </si>
+  <si>
+    <t>test.rb</t>
+  </si>
+  <si>
+    <t>LICENSE</t>
+  </si>
+  <si>
+    <t>tree content</t>
+  </si>
+  <si>
+    <t>commit content (initial)</t>
+  </si>
+  <si>
+    <t>new commit (B)</t>
+  </si>
+  <si>
+    <t>commit B content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">made change on testing and commit </t>
+  </si>
+  <si>
+    <t>the parent of the master branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the content of the master commit (HEAD) </t>
+  </si>
+  <si>
+    <t>the contents of the testing commit (HEAd)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,6 +856,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -635,44 +889,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,7 +967,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>130507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -751,8 +1016,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -805,14 +1070,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>516046</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>382696</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>81319</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -843,8 +1108,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8802796" y="2771775"/>
-          <a:ext cx="3732103" cy="3405544"/>
+          <a:off x="10945921" y="3152775"/>
+          <a:ext cx="3732103" cy="3215044"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -859,6 +1124,1149 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>509975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB6BEB8-D94C-4EE8-9F25-B5B971ED4017}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="4333875"/>
+          <a:ext cx="4072325" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>258743</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="enter image description here">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3789D51-D76A-4BC5-A90F-E4708BE184E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6962775" y="7048500"/>
+          <a:ext cx="3259118" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>940049</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A commit and its tree.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94743AD-2ED0-4E4C-9625-D0A48B1F4FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2159249" y="400050"/>
+          <a:ext cx="6175125" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>55831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6DBC18-CA87-4C19-8AED-9E7D10D106AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4000500"/>
+          <a:ext cx="6829425" cy="817831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3980952</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E21EDD-596D-4D33-BA11-CE45733F02FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4953000"/>
+          <a:ext cx="3980952" cy="609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>294396</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DFBEC4-8BB0-4877-B7BF-254E3EB453BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5934075"/>
+          <a:ext cx="7028571" cy="733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18206</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B444F08-6E88-4EB9-8E0D-6FD8575E13D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7048500"/>
+          <a:ext cx="6752381" cy="761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>226263</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Commits and their parents.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A45C10C-7990-473A-8A67-AB4AA78485F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9560763" y="342900"/>
+          <a:ext cx="6469811" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3523809</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3A1BBA-F862-471A-850E-7879FE51214E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8191500"/>
+          <a:ext cx="3523809" cy="647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>284873</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777BC03C-87DC-4221-939B-7D1E871B4073}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9182100"/>
+          <a:ext cx="7019048" cy="1247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>391704</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Two branches pointing into the same series of commits.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2DB9AE-154A-4487-85DA-8FAF0C670CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8345079" y="4229101"/>
+          <a:ext cx="3913595" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179595</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>124695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="HEAD pointing to a branch.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B996E53E-62C4-461A-BD3A-34CAC25035F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8753475" y="6275595"/>
+          <a:ext cx="3495675" cy="2040600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>170714</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288FE48E-4864-4AD9-AAEF-F5917AD45845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10668000"/>
+          <a:ext cx="5885714" cy="2104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332492</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC231829-16F8-4A12-8C63-E44A6F099718}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13144500"/>
+          <a:ext cx="7066667" cy="1066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536765</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17510</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="The HEAD branch moves forward when a commit is made.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19B9A6E-6198-49DC-8995-D7F731C2D3C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7880540" y="8743950"/>
+          <a:ext cx="4357545" cy="1819275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324877</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="HEAD moves when you checkout.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F9672CF-BB28-45F2-A90E-6C7B1456FF1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7953375" y="11277600"/>
+          <a:ext cx="5201677" cy="2171700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>169068</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="Divergent history.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF50B07D-DC40-4728-BD09-9B399041A513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7953375" y="14287500"/>
+          <a:ext cx="5655468" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>370894</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7317A33F-148E-49C9-9F9F-484CB468F7FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14668500"/>
+          <a:ext cx="4647619" cy="704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>418513</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7055723-47C6-4F48-A3D3-C422F0EBCD96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17716500"/>
+          <a:ext cx="4695238" cy="714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3752850</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC847EA-4F2E-499A-BD09-53DFF6D910BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600075" y="15592425"/>
+          <a:ext cx="3762375" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1019175</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>105561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F8A1A9-7074-490E-9928-091CE66E0AEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="600075" y="16592550"/>
+          <a:ext cx="5305425" cy="848511"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>237380</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>9412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6B7E5C-0342-4814-99E7-B1A8B4FF2D2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="18916650"/>
+          <a:ext cx="5961905" cy="904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1155,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1358,12 +2766,229 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="88" style="5" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="30">
+      <c r="B10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="30">
+      <c r="B16" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="4" width="44.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F55"/>
+  <dimension ref="B3:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1372,6 +2997,11 @@
     <col min="3" max="3" width="36" style="5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+    </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>91</v>
@@ -1402,237 +3032,404 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="C12" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="30">
+      <c r="B15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
-      <c r="C15" s="5" t="s">
+    <row r="25" spans="2:3">
+      <c r="C25" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="C16" s="5" t="s">
+    <row r="26" spans="2:3">
+      <c r="C26" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:6">
-      <c r="C23" s="5" t="s">
+    <row r="33" spans="2:6">
+      <c r="C33" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" t="s">
+    <row r="34" spans="2:6">
+      <c r="B34" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="30">
-      <c r="B30" t="s">
+    <row r="40" spans="2:6" ht="30">
+      <c r="B40" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D32">
+      <c r="D42">
         <v>11520</v>
       </c>
-      <c r="E32">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="F32">
-        <f>(D32*E32)</f>
+      <c r="F42">
+        <f>(D42*E42)</f>
         <v>23040</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" t="s">
+    <row r="47" spans="2:6">
+      <c r="B47" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" t="s">
+    <row r="48" spans="2:6">
+      <c r="B48" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="30">
-      <c r="B51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>173</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="30">
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
-      <c r="B55" t="s">
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
         <v>175</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="30">
+      <c r="B69" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
+        <v>188</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="30">
+      <c r="B87" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1643,6 +3440,89 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:D99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97:H99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" s="18"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C12"/>
   <sheetViews>
@@ -1734,7 +3614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:B9"/>
   <sheetViews>
@@ -1772,7 +3652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C12"/>
   <sheetViews>
@@ -1836,12 +3716,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1901,7 +3781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D12"/>
   <sheetViews>
@@ -1957,7 +3837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D9"/>
   <sheetViews>
@@ -2014,136 +3894,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="60.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3">
-      <c r="B3" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="30">
-      <c r="B10" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="30">
-      <c r="B16" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/How-To.xlsx
+++ b/How-To.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19260" windowHeight="6285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="6045" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MISC" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="kernel-dbg" sheetId="8" r:id="rId9"/>
     <sheet name="make kernel" sheetId="9" r:id="rId10"/>
     <sheet name="yocto" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="290">
   <si>
     <t>dump include info junk.i</t>
   </si>
@@ -786,17 +787,162 @@
   <si>
     <t>the contents of the testing commit (HEAd)</t>
   </si>
+  <si>
+    <t>git push origin master</t>
+  </si>
+  <si>
+    <t>source build/envsetup.sh</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>make -j4</t>
+  </si>
+  <si>
+    <t>make clobber</t>
+  </si>
+  <si>
+    <t>https://source.android.com/source/build-numbers#source-code-tags-and-builds</t>
+  </si>
+  <si>
+    <t>the web lists all android branches</t>
+  </si>
+  <si>
+    <t>repo init -u https://android.googlesource.com/platform/manifest -b android-6.0.1_r78</t>
+  </si>
+  <si>
+    <t>android-7.1.2_r6</t>
+  </si>
+  <si>
+    <t>make snod</t>
+  </si>
+  <si>
+    <t>make cts</t>
+  </si>
+  <si>
+    <t>CTS tests, out/data/app</t>
+  </si>
+  <si>
+    <t>make installclean</t>
+  </si>
+  <si>
+    <t>remove out/*</t>
+  </si>
+  <si>
+    <t>mm/mm -B</t>
+  </si>
+  <si>
+    <t>make bootimage</t>
+  </si>
+  <si>
+    <t>boot.img</t>
+  </si>
+  <si>
+    <t>make systemimage</t>
+  </si>
+  <si>
+    <t>make from the current directory. change single dir, use this</t>
+  </si>
+  <si>
+    <t>fastboot flashing lock/unlock</t>
+  </si>
+  <si>
+    <t>build system image from current binary</t>
+  </si>
+  <si>
+    <t>bitbake -v bbexample</t>
+  </si>
+  <si>
+    <t>bake bbexample recipes</t>
+  </si>
+  <si>
+    <t>bitbake -c clean bbexample</t>
+  </si>
+  <si>
+    <t>clean bbexample build</t>
+  </si>
+  <si>
+    <t>mm -j2 showcommands | tee log.txt</t>
+  </si>
+  <si>
+    <t>bitbake-layers show-recipes</t>
+  </si>
+  <si>
+    <t>generate 2 patches/commits, outs some.patch</t>
+  </si>
+  <si>
+    <t>git format-patch -2 HEAD --stdout &gt; some.patch</t>
+  </si>
+  <si>
+    <t>git format-patch HEAD~2 --stdout &gt; some.patch</t>
+  </si>
+  <si>
+    <t>git apply --check some.patch</t>
+  </si>
+  <si>
+    <t>only check for errors</t>
+  </si>
+  <si>
+    <t>git am some.patch</t>
+  </si>
+  <si>
+    <t>git apply --stat some.patch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show status/meta </t>
+  </si>
+  <si>
+    <t>git format-patch HASH --stdout &gt; some.patch</t>
+  </si>
+  <si>
+    <t>the current commint against HASH</t>
+  </si>
+  <si>
+    <t>rebake gbm</t>
+  </si>
+  <si>
+    <t>rebake weston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIG_CMDLINE_EXTEND=y </t>
+  </si>
+  <si>
+    <t>CONFIG_CMDLINE="printk.time=y initcall_default default"</t>
+  </si>
+  <si>
+    <t>add "printk.time=y initcall_debug debug" to cmdline</t>
+  </si>
+  <si>
+    <t>kernel boot graph</t>
+  </si>
+  <si>
+    <t>dmesg &gt; dmesg.log</t>
+  </si>
+  <si>
+    <t>./scripts/bootgraph.pl dmesg.log &gt; output.svg</t>
+  </si>
+  <si>
+    <t>browser ctrl o to open output.svg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -889,55 +1035,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2563,7 +2715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -2771,7 +2923,7 @@
   <dimension ref="B3:C25"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2925,10 +3077,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D7"/>
+  <dimension ref="C3:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2977,18 +3129,61 @@
         <v>204</v>
       </c>
     </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F90"/>
+  <dimension ref="B3:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3432,6 +3627,53 @@
         <v>230</v>
       </c>
     </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="30">
+      <c r="B95" t="s">
+        <v>272</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>274</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>277</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3443,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97:H99"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106:B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3657,7 +3899,7 @@
   <dimension ref="B3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -3718,19 +3960,24 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D13"/>
+  <dimension ref="B1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="57.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="79" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4">
+    <row r="1" spans="2:4">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" spans="2:4">
       <c r="C3" s="1" t="s">
         <v>79</v>
       </c>
@@ -3738,17 +3985,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="30">
+    <row r="4" spans="2:4">
       <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="2:4">
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="2:4">
       <c r="C7" s="1" t="s">
         <v>83</v>
       </c>
@@ -3756,37 +4003,124 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="2:4">
       <c r="C8" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="9" spans="2:4" ht="30">
+      <c r="C9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="11" spans="2:4" ht="30">
+      <c r="C11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="C12" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="2:4">
       <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="16" spans="2:4">
+      <c r="C16" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="30">
+      <c r="C20" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="45">
+      <c r="C23" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D12"/>
+  <dimension ref="C2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3831,6 +4165,11 @@
         <v>108</v>
       </c>
     </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3839,16 +4178,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:D9"/>
+  <dimension ref="C4:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="53.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:4">
@@ -3890,6 +4230,40 @@
         <v>132</v>
       </c>
     </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="3:4" ht="30">
+      <c r="C12" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/How-To.xlsx
+++ b/How-To.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,28 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="6045" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="6045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MISC" sheetId="1" r:id="rId1"/>
     <sheet name="git" sheetId="2" r:id="rId2"/>
-    <sheet name="how git works" sheetId="11" r:id="rId3"/>
-    <sheet name="gdb" sheetId="3" r:id="rId4"/>
-    <sheet name="mysql" sheetId="4" r:id="rId5"/>
-    <sheet name="ubuntu" sheetId="5" r:id="rId6"/>
-    <sheet name="android" sheetId="6" r:id="rId7"/>
-    <sheet name="adb-fastboot" sheetId="7" r:id="rId8"/>
-    <sheet name="kernel-dbg" sheetId="8" r:id="rId9"/>
-    <sheet name="make kernel" sheetId="9" r:id="rId10"/>
-    <sheet name="yocto" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId12"/>
+    <sheet name="gcc-eclipse" sheetId="13" r:id="rId3"/>
+    <sheet name="how git works" sheetId="11" r:id="rId4"/>
+    <sheet name="gdb" sheetId="3" r:id="rId5"/>
+    <sheet name="mysql" sheetId="4" r:id="rId6"/>
+    <sheet name="ubuntu" sheetId="5" r:id="rId7"/>
+    <sheet name="android" sheetId="6" r:id="rId8"/>
+    <sheet name="adb-fastboot" sheetId="7" r:id="rId9"/>
+    <sheet name="kernel-dbg" sheetId="8" r:id="rId10"/>
+    <sheet name="make kernel" sheetId="9" r:id="rId11"/>
+    <sheet name="yocto" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="310">
   <si>
     <t>dump include info junk.i</t>
   </si>
@@ -458,9 +459,6 @@
     <t>delete branch</t>
   </si>
   <si>
-    <t>git branch  --merged/--no-merged</t>
-  </si>
-  <si>
     <t>show merged/not branches into the current branch you are on</t>
   </si>
   <si>
@@ -543,9 +541,6 @@
   </si>
   <si>
     <t>3)</t>
-  </si>
-  <si>
-    <t>make some_defconfig/make ARCH=arm64 some_defconfig</t>
   </si>
   <si>
     <t>git branch -a</t>
@@ -815,9 +810,6 @@
     <t>android-7.1.2_r6</t>
   </si>
   <si>
-    <t>make snod</t>
-  </si>
-  <si>
     <t>make cts</t>
   </si>
   <si>
@@ -924,18 +916,94 @@
   </si>
   <si>
     <t>browser ctrl o to open output.svg</t>
+  </si>
+  <si>
+    <t>make some_defconfig/make ARCH=arm64      some_defconfig</t>
+  </si>
+  <si>
+    <t>git config user.email c_akong@quicinc.com</t>
+  </si>
+  <si>
+    <t>git commit --amend --reset-author</t>
+  </si>
+  <si>
+    <t>change the email in git repo</t>
+  </si>
+  <si>
+    <t>repo init</t>
+  </si>
+  <si>
+    <t>repe sync meta_qti-bsp</t>
+  </si>
+  <si>
+    <t>sync with upstream</t>
+  </si>
+  <si>
+    <t>sudo apt-get install gcc-aarch64-linux-gnu</t>
+  </si>
+  <si>
+    <t>install arm64 gcc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> make ARCH=arm64 CROSS_COMPILE=aarch64-linux-gnu-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpull cp 1897953 1922599 1911772 1934736 1935222 1935243 </t>
+  </si>
+  <si>
+    <t>git clone -b rel/msm-4.4     git://xxx.xx.git</t>
+  </si>
+  <si>
+    <t>git clone -b dev/msm-4.4    git://</t>
+  </si>
+  <si>
+    <t>make snod (works, only rebuild system.img)</t>
+  </si>
+  <si>
+    <t>make showcommands out/target/product/msm8998/system.img (re-build everything)</t>
+  </si>
+  <si>
+    <t>git ls-remote --heads  ssh://git.quicinc.com:29418/meta-qti-internal</t>
+  </si>
+  <si>
+    <t>properties-&gt;C/C++ build/settings/Debugging</t>
+  </si>
+  <si>
+    <t>other debuggings flags -save-temps=obj</t>
+  </si>
+  <si>
+    <t>dir /local/mnt/workspace/c_akong/gstreamer</t>
+  </si>
+  <si>
+    <t>source search tree?</t>
+  </si>
+  <si>
+    <t>export LD_LIBRARY_PATH=/local/mnt/xxx/projects/sources/gstreamer</t>
+  </si>
+  <si>
+    <t>for source files!!! Executable contains debugging info, which includes the files.</t>
+  </si>
+  <si>
+    <t>git difftool master debug-01 gst/gstallocator.c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1008,6 +1076,14 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1035,59 +1111,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2904,12 +2989,12 @@
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2920,10 +3005,104 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C25"/>
+  <dimension ref="C4:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="53.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:4">
+      <c r="C4" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="18" customHeight="1">
+      <c r="C6" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="3:4" ht="30">
+      <c r="C12" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2934,140 +3113,156 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="30">
       <c r="B10" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="14"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30">
       <c r="B16" s="14" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="15" t="s">
-        <v>184</v>
-      </c>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3075,7 +3270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D17"/>
   <sheetViews>
@@ -3091,73 +3286,73 @@
   <sheetData>
     <row r="3" spans="3:4">
       <c r="C3" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3180,21 +3375,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F100"/>
+  <dimension ref="B3:F113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" customWidth="1"/>
     <col min="3" max="3" width="36" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="2:3">
@@ -3227,43 +3422,43 @@
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="C10" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="C11" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="C13" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="30">
       <c r="B15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="2:3">
@@ -3273,10 +3468,10 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -3291,15 +3486,15 @@
     </row>
     <row r="20" spans="2:3">
       <c r="B20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -3410,7 +3605,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="2:6">
@@ -3487,191 +3682,239 @@
         <v>139</v>
       </c>
     </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>298</v>
+      </c>
+    </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="30">
-      <c r="B63" t="s">
+    <row r="64" spans="2:3" ht="30">
+      <c r="C64" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="30">
+      <c r="B70" t="s">
         <v>175</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="30">
-      <c r="B69" t="s">
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
         <v>177</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" t="s">
-        <v>185</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" t="s">
-        <v>191</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>193</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="B77" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82" t="s">
-        <v>219</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>220</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="B84" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
         <v>222</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
-      <c r="B86" t="s">
+    <row r="88" spans="2:3" ht="30">
+      <c r="B88" t="s">
         <v>224</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="2:3" ht="30">
-      <c r="B87" t="s">
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
         <v>226</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
-      <c r="B88" t="s">
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
         <v>228</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3">
-      <c r="B90" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="B92" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" ht="30">
-      <c r="B95" t="s">
-        <v>272</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3">
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="30">
       <c r="B96" t="s">
-        <v>273</v>
+        <v>269</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="B97" t="s">
-        <v>279</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="B98" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="B99" t="s">
-        <v>276</v>
+        <v>271</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="B100" t="s">
-        <v>277</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>274</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" t="s">
+        <v>291</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3682,6 +3925,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:E4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="53" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:5">
+      <c r="D4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D99"/>
   <sheetViews>
@@ -3698,20 +3968,20 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="C5" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -3719,42 +3989,42 @@
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3764,25 +4034,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="23" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3805,7 +4075,7 @@
       <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3813,7 +4083,7 @@
       <c r="B7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3831,7 +4101,7 @@
       <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3839,7 +4109,7 @@
       <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3847,16 +4117,33 @@
       <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="30">
+      <c r="B16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:B9"/>
   <sheetViews>
@@ -3894,7 +4181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C12"/>
   <sheetViews>
@@ -3958,12 +4245,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D27"/>
+  <dimension ref="B1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4010,10 +4297,10 @@
     </row>
     <row r="9" spans="2:4" ht="30">
       <c r="C9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -4023,10 +4310,10 @@
     </row>
     <row r="11" spans="2:4" ht="30">
       <c r="C11" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -4041,72 +4328,77 @@
     </row>
     <row r="16" spans="2:4">
       <c r="C16" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="30">
       <c r="C20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>264</v>
+        <v>300</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="45">
       <c r="C23" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" ht="30">
+      <c r="C29" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4115,7 +4407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D15"/>
   <sheetViews>
@@ -4167,102 +4459,8 @@
     </row>
     <row r="15" spans="3:4">
       <c r="C15" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:D15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="53.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:4">
-      <c r="C4" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" ht="18" customHeight="1">
-      <c r="C6" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="3:4" ht="30">
-      <c r="C12" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="D15" s="21"/>
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/How-To.xlsx
+++ b/How-To.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,29 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="6045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="5940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MISC" sheetId="1" r:id="rId1"/>
     <sheet name="git" sheetId="2" r:id="rId2"/>
     <sheet name="gcc-eclipse" sheetId="13" r:id="rId3"/>
-    <sheet name="how git works" sheetId="11" r:id="rId4"/>
-    <sheet name="gdb" sheetId="3" r:id="rId5"/>
-    <sheet name="mysql" sheetId="4" r:id="rId6"/>
-    <sheet name="ubuntu" sheetId="5" r:id="rId7"/>
-    <sheet name="android" sheetId="6" r:id="rId8"/>
-    <sheet name="adb-fastboot" sheetId="7" r:id="rId9"/>
-    <sheet name="kernel-dbg" sheetId="8" r:id="rId10"/>
-    <sheet name="make kernel" sheetId="9" r:id="rId11"/>
-    <sheet name="yocto" sheetId="10" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId13"/>
+    <sheet name="gstreamer" sheetId="14" r:id="rId4"/>
+    <sheet name="how git works" sheetId="11" r:id="rId5"/>
+    <sheet name="gdb" sheetId="3" r:id="rId6"/>
+    <sheet name="mysql" sheetId="4" r:id="rId7"/>
+    <sheet name="ubuntu" sheetId="5" r:id="rId8"/>
+    <sheet name="android" sheetId="6" r:id="rId9"/>
+    <sheet name="adb-fastboot" sheetId="7" r:id="rId10"/>
+    <sheet name="kernel-dbg" sheetId="8" r:id="rId11"/>
+    <sheet name="make kernel" sheetId="9" r:id="rId12"/>
+    <sheet name="yocto" sheetId="10" r:id="rId13"/>
+    <sheet name="vnc" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="358">
   <si>
     <t>dump include info junk.i</t>
   </si>
@@ -909,9 +911,6 @@
     <t>kernel boot graph</t>
   </si>
   <si>
-    <t>dmesg &gt; dmesg.log</t>
-  </si>
-  <si>
     <t>./scripts/bootgraph.pl dmesg.log &gt; output.svg</t>
   </si>
   <si>
@@ -985,13 +984,185 @@
   </si>
   <si>
     <t>git difftool master debug-01 gst/gstallocator.c</t>
+  </si>
+  <si>
+    <t>GST_PLUGIN_PATH=/local/mnt/workspace/local/lib/gstreamer1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -lgstreamer-1 -lgobject-2.0 -lglib-2.0</t>
+  </si>
+  <si>
+    <t>MACHINE=apqxxx bitbake -fc compile xxxx</t>
+  </si>
+  <si>
+    <t>MACHINE=apqxxx bitbake -fc install xxxx</t>
+  </si>
+  <si>
+    <t>MACHINE=apqxxx bitbake -fc package xxxx</t>
+  </si>
+  <si>
+    <t>#!/bin/bash</t>
+  </si>
+  <si>
+    <t>unset SESSION_MANAGER</t>
+  </si>
+  <si>
+    <t>unset DBUS_SESSION_BUS_ADDRESS</t>
+  </si>
+  <si>
+    <t>vncconfig -nowin &amp;    </t>
+  </si>
+  <si>
+    <r>
+      <t>/usr/bin/gnome-session </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--session=ubuntu-2d</t>
+    </r>
+  </si>
+  <si>
+    <t>/usr/bin/x-window-manager &amp;</t>
+  </si>
+  <si>
+    <t>############</t>
+  </si>
+  <si>
+    <t>export PKG_CONFIG_PATH=/local/mnt/workspace/c_akong/local/lib/pkgconfig</t>
+  </si>
+  <si>
+    <t>export GST_PLUGIN_PATH=/local/mnt/workspace/c_akong/local/lib/gstreamer-1.0</t>
+  </si>
+  <si>
+    <t>export LD_LIBRARY_PATH=/local/mnt/workspace/c_akong/local/lib</t>
+  </si>
+  <si>
+    <t>Makefile.am --&gt; Makefile.in --&gt; Makefile</t>
+  </si>
+  <si>
+    <t>emacs gdb -i=mi gst_plugins_01</t>
+  </si>
+  <si>
+    <t>debug plugins</t>
+  </si>
+  <si>
+    <t>eclipse gdb command line b /local/mnt/workspace/projects/sources/gst-plugins-base-1.0.0/sys/ximage/ximage.c:36</t>
+  </si>
+  <si>
+    <t>src call stack</t>
+  </si>
+  <si>
+    <t>gst_base_src_get_range</t>
+  </si>
+  <si>
+    <t>defaut_func  - gsttaskloop.c</t>
+  </si>
+  <si>
+    <t>gst_task_func - gsttask.c</t>
+  </si>
+  <si>
+    <t>gst_base_src_loop - gstbasesrc.c</t>
+  </si>
+  <si>
+    <t>gst_push_src_create  - gstpushsrc.c</t>
+  </si>
+  <si>
+    <t>videotestsrc plugin:gst_video_test_src_setcaps()</t>
+  </si>
+  <si>
+    <t>check pakage/lib path</t>
+  </si>
+  <si>
+    <t>sudo dpkg -L libmount-dev</t>
+  </si>
+  <si>
+    <t>build glib</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>fix the libmount error</t>
+  </si>
+  <si>
+    <t>./configure --enable-libmount=no --prefix=/local/mnt/workspace/c_akong/local</t>
+  </si>
+  <si>
+    <t>cd tests/ make test_name</t>
+  </si>
+  <si>
+    <t>compile test_name.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add my own test </t>
+  </si>
+  <si>
+    <t>add my_test_name (my_test_name.c) to tests/Makefile.am &amp;&amp; ./configure --xxxx in the top source direcotry</t>
+  </si>
+  <si>
+    <t>pkg-config --cflags glib-2.0 OR --libs glib-2.0</t>
+  </si>
+  <si>
+    <t>dmesg &gt; dmesg.log (adb shell and dmesg &gt; dmesg.log, adb shell dmesg &gt; dmesg.log could corrupt the output)</t>
+  </si>
+  <si>
+    <t>yocto, poky/meta-qti-bsp/conf/machine/apq8098.conf to change command line</t>
+  </si>
+  <si>
+    <t>gst debug message</t>
+  </si>
+  <si>
+    <t>export GST_DEBUG="2,v4l2dec:7"</t>
+  </si>
+  <si>
+    <t>export GST_DEBUG_FILE=test.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git push --no-thin ssh://review-android.quicinc.com:29418/platform/vendor/qcom-proprietary/gst-plugins-internal HEAD:refs/for/gst-framework.lnx.1.0-dev</t>
+  </si>
+  <si>
+    <t>git push --no-thin ssh://review-android.quicinc.com:29418/platform/vendor/qcom-proprietary/gst-plugins-internal HEAD:refs/for/yocto.lnx.1.0-dev</t>
+  </si>
+  <si>
+    <t>export GST_DEBUG="2,v4l2dec:7,baseparse:7,h264parse:7"</t>
+  </si>
+  <si>
+    <t>--mirror=&lt;fetch|push&gt;]</t>
+  </si>
+  <si>
+    <t>bitbake -e | grep "variable"</t>
+  </si>
+  <si>
+    <t>print variable</t>
+  </si>
+  <si>
+    <r>
+      <t>git push quic HEAD:refs/for/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>msm-4.4</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,6 +1255,67 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF3366FF"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1111,12 +1343,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1156,24 +1387,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,6 +1727,495 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4361905</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F1A00B-F3A6-42D4-B177-A2464508014C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="1714500"/>
+          <a:ext cx="4361905" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4514286</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCC7DCA-D1EB-45EC-85B3-336A8EF67503}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="4000500"/>
+          <a:ext cx="4514286" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4028571</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>133095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D4A289-AD1F-4245-BFFB-119ED3029D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="6286500"/>
+          <a:ext cx="4028571" cy="2038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3847619</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA8E4DA0-8D7D-4956-96C8-99B691F1E7F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="8763000"/>
+          <a:ext cx="3847619" cy="2047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5114286</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{263134F7-A1D0-4C39-A833-E87741D63A6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="11049000"/>
+          <a:ext cx="5114286" cy="2266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4628571</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>47357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2550556-2F33-45EB-9703-C948C4957B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286625" y="13525500"/>
+          <a:ext cx="4628571" cy="2142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466162</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E895CCF-DA59-4EA8-A602-C844E47C9F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13058775" y="1905000"/>
+          <a:ext cx="4504762" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5686425</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>732818</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD2340E-3B06-45A6-8B04-2311D86B1BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12973050" y="6410325"/>
+          <a:ext cx="4857143" cy="1171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723305</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>18786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9E3920D-A91C-4D4A-8A07-7ADC7FC0BD3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13058775" y="4000500"/>
+          <a:ext cx="4761905" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5657850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3457129</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB962B8-0E8A-4D92-A0D5-E8E3C7D01708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12944475" y="7820025"/>
+          <a:ext cx="3571429" cy="1866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5648325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294718</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B9127A-A0BB-4693-914B-F3B1C9F104AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12934950" y="9858375"/>
+          <a:ext cx="4457143" cy="2171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2797,203 +3539,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="108.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="108.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="30">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="30">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3004,92 +3746,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="C2:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="53.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" customWidth="1"/>
+    <col min="3" max="3" width="48" style="4" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4">
-      <c r="C4" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" ht="18" customHeight="1">
-      <c r="C6" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="11" t="s">
-        <v>128</v>
+    <row r="2" spans="3:4">
+      <c r="C2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="3:4">
-      <c r="C8" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>129</v>
+      <c r="C8" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="3:4">
-      <c r="C9" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>132</v>
+      <c r="C9" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="3:4" ht="30">
-      <c r="C12" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D14" s="20"/>
+      <c r="C11" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="15" spans="3:4">
-      <c r="C15" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D15" s="20"/>
+      <c r="C15" s="4" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3098,171 +3807,100 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="C4:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="88" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="97.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
-      <c r="B3" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="30">
-      <c r="B10" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="30">
-      <c r="B16" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="21"/>
+    <row r="4" spans="3:4">
+      <c r="C4" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="18" customHeight="1">
+      <c r="C6" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="30">
+      <c r="C13" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3271,88 +3909,172 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="B3:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="44.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="88" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4">
-      <c r="C3" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
-      <c r="C4" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="5" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="5" t="s">
-        <v>279</v>
+    <row r="3" spans="2:3">
+      <c r="B3" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="30">
+      <c r="B10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="30">
+      <c r="B16" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="19" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3362,7 +4084,129 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="C3:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="29"/>
+    <col min="3" max="3" width="81" style="30" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="30" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="31" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3374,17 +4218,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B3:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="76.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36" style="5" customWidth="1"/>
+    <col min="2" max="2" width="112" customWidth="1"/>
+    <col min="3" max="3" width="36" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
@@ -3401,17 +4245,17 @@
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3424,32 +4268,32 @@
       <c r="B9" t="s">
         <v>207</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3457,7 +4301,7 @@
       <c r="B15" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3470,7 +4314,7 @@
       <c r="B17" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3493,7 +4337,7 @@
       <c r="B22" t="s">
         <v>187</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3506,17 +4350,17 @@
       <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3524,7 +4368,7 @@
       <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3537,7 +4381,7 @@
       <c r="B31" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3545,12 +4389,12 @@
       <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3558,7 +4402,7 @@
       <c r="B34" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3581,7 +4425,7 @@
       <c r="B40" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3589,7 +4433,7 @@
       <c r="B42" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D42">
@@ -3622,7 +4466,7 @@
       <c r="B48" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3630,7 +4474,7 @@
       <c r="B50" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3638,7 +4482,7 @@
       <c r="B52" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3646,7 +4490,7 @@
       <c r="B54" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3654,7 +4498,7 @@
       <c r="B56" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3662,7 +4506,7 @@
       <c r="B57" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3670,7 +4514,7 @@
       <c r="B59" t="s">
         <v>137</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3678,30 +4522,30 @@
       <c r="B60" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="30">
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3709,7 +4553,7 @@
       <c r="B66" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3717,7 +4561,7 @@
       <c r="B67" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3725,7 +4569,7 @@
       <c r="B68" t="s">
         <v>173</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3733,7 +4577,7 @@
       <c r="B70" t="s">
         <v>175</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3746,7 +4590,7 @@
       <c r="B74" t="s">
         <v>183</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3754,7 +4598,7 @@
       <c r="B75" t="s">
         <v>186</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3762,7 +4606,7 @@
       <c r="B77" t="s">
         <v>189</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3770,13 +4614,13 @@
       <c r="B78" t="s">
         <v>190</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="2:3">
@@ -3784,11 +4628,16 @@
         <v>205</v>
       </c>
     </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>354</v>
+      </c>
+    </row>
     <row r="83" spans="2:3">
       <c r="B83" t="s">
         <v>217</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3801,7 +4650,7 @@
       <c r="B85" t="s">
         <v>220</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3809,7 +4658,7 @@
       <c r="B87" t="s">
         <v>222</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3817,7 +4666,7 @@
       <c r="B88" t="s">
         <v>224</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3825,7 +4674,7 @@
       <c r="B89" t="s">
         <v>226</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3843,7 +4692,7 @@
       <c r="B96" t="s">
         <v>269</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3856,7 +4705,7 @@
       <c r="B98" t="s">
         <v>276</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3864,7 +4713,7 @@
       <c r="B99" t="s">
         <v>271</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3877,44 +4726,54 @@
       <c r="B101" t="s">
         <v>274</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="4" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
-        <v>288</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>290</v>
+        <v>287</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="B107" t="s">
-        <v>291</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3925,11 +4784,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D4:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3940,10 +4799,10 @@
   <sheetData>
     <row r="4" spans="4:5">
       <c r="D4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" t="s">
         <v>303</v>
-      </c>
-      <c r="E4" t="s">
-        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -3952,58 +4811,137 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="C2:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="72.7109375" customWidth="1"/>
+    <col min="6" max="6" width="86.5703125" customWidth="1"/>
+    <col min="7" max="7" width="60.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7">
+      <c r="G2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="F3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="F5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="F6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="F7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="F8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="G10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106:B107"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="64.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="C22" s="18"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="17" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="17" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4034,107 +4972,120 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C16"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B2:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="66.7109375" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="92.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C15" s="5" t="s">
+    </row>
+    <row r="16" spans="2:3" ht="30">
+      <c r="B16" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="30">
-      <c r="B16" t="s">
+      <c r="C16" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>308</v>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="30">
+      <c r="B19" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -4143,8 +5094,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B5:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4181,63 +5132,162 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C12"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B3:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="70.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="99" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:3">
       <c r="B8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:3">
       <c r="B10" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:3">
       <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="2:3">
       <c r="B12" s="1" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="C13" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="23" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="23" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="30">
+      <c r="B36" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4245,11 +5295,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -4348,9 +5398,9 @@
     </row>
     <row r="20" spans="3:4" ht="30">
       <c r="C20" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D20" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>261</v>
       </c>
     </row>
@@ -4398,72 +5448,11 @@
     </row>
     <row r="29" spans="3:4" ht="30">
       <c r="C29" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="48" style="5" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:4">
-      <c r="C2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/How-To.xlsx
+++ b/How-To.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="5940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="5940" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MISC" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="356">
   <si>
     <t>dump include info junk.i</t>
   </si>
@@ -891,12 +891,6 @@
   </si>
   <si>
     <t>the current commint against HASH</t>
-  </si>
-  <si>
-    <t>rebake gbm</t>
-  </si>
-  <si>
-    <t>rebake weston</t>
   </si>
   <si>
     <t xml:space="preserve">CONFIG_CMDLINE_EXTEND=y </t>
@@ -1144,18 +1138,7 @@
     <t>print variable</t>
   </si>
   <si>
-    <r>
-      <t>git push quic HEAD:refs/for/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>msm-4.4</t>
-    </r>
+    <t>git push quic HEAD:refs/for/branch_name</t>
   </si>
 </sst>
 </file>
@@ -1313,8 +1296,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1343,7 +1327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1428,6 +1412,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3862,41 +3847,41 @@
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="3:4" ht="30">
       <c r="C13" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" s="18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" s="27" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="3:3">
@@ -4020,7 +4005,7 @@
     </row>
     <row r="16" spans="2:3" ht="30">
       <c r="B16" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>168</v>
@@ -4061,20 +4046,20 @@
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="19" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4087,8 +4072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="C3:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4142,10 +4127,10 @@
     </row>
     <row r="8" spans="3:4">
       <c r="C8" s="30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -4169,34 +4154,24 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="30" t="s">
-        <v>279</v>
-      </c>
-    </row>
     <row r="19" spans="3:3">
       <c r="C19" s="30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="30" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="16.5">
       <c r="C26" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4528,12 +4503,12 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="2:3">
@@ -4620,7 +4595,7 @@
     </row>
     <row r="79" spans="2:3">
       <c r="B79" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="2:3">
@@ -4630,7 +4605,7 @@
     </row>
     <row r="81" spans="2:3">
       <c r="B81" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="2:3">
@@ -4732,48 +4707,48 @@
     </row>
     <row r="103" spans="2:3">
       <c r="B103" t="s">
+        <v>285</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="B104" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="B107" t="s">
+        <v>288</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="108" spans="2:3">
       <c r="B108" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -4799,10 +4774,10 @@
   <sheetData>
     <row r="4" spans="4:5">
       <c r="D4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -4814,73 +4789,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C2:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="E70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="72.7109375" customWidth="1"/>
-    <col min="6" max="6" width="86.5703125" customWidth="1"/>
-    <col min="7" max="7" width="60.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="32"/>
+    <col min="3" max="3" width="72.7109375" style="32" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="32"/>
+    <col min="6" max="6" width="86.5703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="60.5703125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7">
-      <c r="G2" t="s">
+      <c r="G2" s="32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="F3" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="3:7">
-      <c r="F3" t="s">
+    <row r="4" spans="3:7">
+      <c r="C4" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="G3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" s="32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="F5" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="F6" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="G4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="F5" t="s">
+    </row>
+    <row r="7" spans="3:7">
+      <c r="F7" s="32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="F8" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="G5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="F6" t="s">
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" s="32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="G10" s="32" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="F7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="F8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="G10" t="s">
-        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5061,31 +5039,31 @@
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30">
       <c r="B16" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
       <c r="B19" s="24" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -5193,101 +5171,101 @@
     </row>
     <row r="13" spans="2:3">
       <c r="C13" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30">
       <c r="B36" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -5398,7 +5376,7 @@
     </row>
     <row r="20" spans="3:4" ht="30">
       <c r="C20" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>261</v>
@@ -5448,7 +5426,7 @@
     </row>
     <row r="29" spans="3:4" ht="30">
       <c r="C29" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/How-To.xlsx
+++ b/How-To.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="5940" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9240" windowHeight="5940" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MISC" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="android" sheetId="6" r:id="rId9"/>
     <sheet name="adb-fastboot" sheetId="7" r:id="rId10"/>
     <sheet name="kernel-dbg" sheetId="8" r:id="rId11"/>
-    <sheet name="make kernel" sheetId="9" r:id="rId12"/>
+    <sheet name="driver and kernel" sheetId="9" r:id="rId12"/>
     <sheet name="yocto" sheetId="10" r:id="rId13"/>
-    <sheet name="vnc" sheetId="12" r:id="rId14"/>
+    <sheet name="VBox" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="543">
   <si>
     <t>dump include info junk.i</t>
   </si>
@@ -1140,17 +1140,599 @@
   <si>
     <t>git push quic HEAD:refs/for/branch_name</t>
   </si>
+  <si>
+    <t>Android NDK Vulkan setup</t>
+  </si>
+  <si>
+    <t>install git on Windows: https://git-scm.com/download/win</t>
+  </si>
+  <si>
+    <t>cmd prompt (not power-shell)</t>
+  </si>
+  <si>
+    <t>update_external_sources.bat --sync-glslang --sync-spirv-tools</t>
+  </si>
+  <si>
+    <t>sudo apt-cache search glproto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find package name to install for apt-get install </t>
+  </si>
+  <si>
+    <t>cp VBoxGuestAddition.iso (C:/Program File/Oracle/VirtualBox/) to Guest OS, Ubuntu</t>
+  </si>
+  <si>
+    <t>create mounting directory for iso file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mounting VBoxGuestAddition.iso </t>
+  </si>
+  <si>
+    <t>scp c_akong@server_name/TMP/VBoxGuestAddion.iso /home/bert/TMP/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo mount -o loop /home/bert/TMP/VBoxGuestAdditions.iso  /media/VBoxGuestAdditionsISO </t>
+  </si>
+  <si>
+    <t>sudo /media/VBoxGuestAdditionsISO (any directory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls -l </t>
+  </si>
+  <si>
+    <t>/media/VBoxGuestAdditionsISO</t>
+  </si>
+  <si>
+    <t>transient folders</t>
+  </si>
+  <si>
+    <t>machine folders</t>
+  </si>
+  <si>
+    <t>permenent folders</t>
+  </si>
+  <si>
+    <t>temporary folders, automatically removed when the system is shut down</t>
+  </si>
+  <si>
+    <t>After boot Guest OS, the system shows Vbox_GAs_5.2.6 and ask to run it. After running, it should have the same results below. Mounted to  /media/bert/Vbox_Gas_5.2.6/</t>
+  </si>
+  <si>
+    <t>install VirutalBox's Guest Additions in the Guest OS/Ubuntu(manually do I, in case of the guest OS doesn't show Vbox Gas popup window.</t>
+  </si>
+  <si>
+    <t>Shared Folder</t>
+  </si>
+  <si>
+    <t>install Guest Additions (above)</t>
+  </si>
+  <si>
+    <t>mount on Guest OS</t>
+  </si>
+  <si>
+    <t>make mount point in Guest OS</t>
+  </si>
+  <si>
+    <t>mkdir projects_host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo mount -t vboxsf projects projects_host (projects is WinOS shared folder name </t>
+  </si>
+  <si>
+    <t>WinOS shared directory</t>
+  </si>
+  <si>
+    <t>right click projects (shared folder) to the Windows folder shared. see the attached image</t>
+  </si>
+  <si>
+    <t>Install VirtualBox</t>
+  </si>
+  <si>
+    <t>mapping VBoxGuestAdditions.iso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> select settings-&gt;storage set IDE CD/DVD point the downloaded ubuntu ISO image.</t>
+  </si>
+  <si>
+    <t>1)</t>
+  </si>
+  <si>
+    <t>2) start button to install the guest OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt-get </t>
+  </si>
+  <si>
+    <t>install Lang5.0</t>
+  </si>
+  <si>
+    <t>wget -O - https://apt.llvm.org/llvm-snapshot.gpg.key|sudo apt-key add -</t>
+  </si>
+  <si>
+    <t># Fingerprint: 6084 F3CF 814B 57C1</t>
+  </si>
+  <si>
+    <t>apt-get install clang-5.0 lldb-5.0 libllvm5.0-dbg</t>
+  </si>
+  <si>
+    <t>mesa with vulkan</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/SaschaWillems/47be6970a3e99a3d30e1 for instructions</t>
+  </si>
+  <si>
+    <t>autoreconf -vfi</t>
+  </si>
+  <si>
+    <t>compile module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uname -r </t>
+  </si>
+  <si>
+    <t>sudo apt-get install linux-headers-$(uname -r)   (/usr/src/linux-xxx)</t>
+  </si>
+  <si>
+    <t>sudo apt-get install gcc-mips-linux-gnu</t>
+  </si>
+  <si>
+    <t>ldd4 Makefile Output preprocessed xxx.i file</t>
+  </si>
+  <si>
+    <t>*% gdb object normal debug</t>
+  </si>
+  <si>
+    <t>*% gdb object core core debug (must specify core file)</t>
+  </si>
+  <si>
+    <t>%% gdb object pid attach to running process</t>
+  </si>
+  <si>
+    <t>% gdb use file command to load object</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>*(gdb) help list command classes</t>
+  </si>
+  <si>
+    <t>(gdb) help running list commands in one command class</t>
+  </si>
+  <si>
+    <t>(gdb) help run bottom-level help for a command "run"</t>
+  </si>
+  <si>
+    <t>(gdb) help info list info commands (running program state)</t>
+  </si>
+  <si>
+    <t>(gdb) help info line help for a particular info command</t>
+  </si>
+  <si>
+    <t>(gdb) help show list show commands (gdb state)</t>
+  </si>
+  <si>
+    <t>(gdb) help show commands specific help for a show command</t>
+  </si>
+  <si>
+    <t>Breakpoints</t>
+  </si>
+  <si>
+    <t>*(gdb) break main set a breakpoint on a function</t>
+  </si>
+  <si>
+    <t>*(gdb) break 101 set a breakpoint on a line number</t>
+  </si>
+  <si>
+    <t>*(gdb) break basic.c:101 set breakpoint at file and line (or function)</t>
+  </si>
+  <si>
+    <t>*(gdb) info breakpoints show breakpoints</t>
+  </si>
+  <si>
+    <t>*(gdb) delete 1 delete a breakpoint by number</t>
+  </si>
+  <si>
+    <t>(gdb) delete delete all breakpoints (prompted)</t>
+  </si>
+  <si>
+    <t>(gdb) clear delete breakpoints at current line</t>
+  </si>
+  <si>
+    <t>(gdb) clear function delete breakpoints at function</t>
+  </si>
+  <si>
+    <t>(gdb) clear line delete breakpoints at line</t>
+  </si>
+  <si>
+    <t>(gdb) disable 2 turn a breakpoint off, but don't remove it</t>
+  </si>
+  <si>
+    <t>(gdb) enable 2 turn disabled breakpoint back on</t>
+  </si>
+  <si>
+    <t>(gdb) tbreak function|line set a temporary breakpoint</t>
+  </si>
+  <si>
+    <t>(gdb) commands break-no ... end set gdb commands with breakpoint</t>
+  </si>
+  <si>
+    <t>(gdb) ignore break-no count ignore bpt N-1 times before activation</t>
+  </si>
+  <si>
+    <t>(gdb) condition break-no expression break only if condition is true</t>
+  </si>
+  <si>
+    <t>(gdb) condition 2 i == 20 example: break on breakpoint 2 if i equals 20</t>
+  </si>
+  <si>
+    <t>(gdb) watch expression set software watchpoint on variable</t>
+  </si>
+  <si>
+    <t>(gdb) info watchpoints show current watchpoints</t>
+  </si>
+  <si>
+    <t>Running the program</t>
+  </si>
+  <si>
+    <t>*(gdb) run run the program with current arguments</t>
+  </si>
+  <si>
+    <t>*(gdb) run args redirection run with args and redirection</t>
+  </si>
+  <si>
+    <t>(gdb) set args args... set arguments for run</t>
+  </si>
+  <si>
+    <t>(gdb) show args show current arguments to run</t>
+  </si>
+  <si>
+    <t>*(gdb) cont continue the program</t>
+  </si>
+  <si>
+    <t>*(gdb) step single step the program; step into functions</t>
+  </si>
+  <si>
+    <t>(gdb) step count singlestep \fIcount\fR times</t>
+  </si>
+  <si>
+    <t>*(gdb) next step but step over functions</t>
+  </si>
+  <si>
+    <t>(gdb) next count next \fIcount\fR times</t>
+  </si>
+  <si>
+    <t>*(gdb) CTRL-C actually SIGINT, stop execution of current program</t>
+  </si>
+  <si>
+    <t>*(gdb) attach process-id attach to running program</t>
+  </si>
+  <si>
+    <t>*(gdb) detach detach from running program</t>
+  </si>
+  <si>
+    <t>*(gdb) finish finish current function's execution</t>
+  </si>
+  <si>
+    <t>(gdb) kill kill current executing program</t>
+  </si>
+  <si>
+    <t>Stack backtrace</t>
+  </si>
+  <si>
+    <t>*(gdb) bt print stack backtrace</t>
+  </si>
+  <si>
+    <t>(gdb) frame show current execution position</t>
+  </si>
+  <si>
+    <t>(gdb) up move up stack trace (towards main)</t>
+  </si>
+  <si>
+    <t>(gdb) down move down stack trace (away from main)</t>
+  </si>
+  <si>
+    <t>*(gdb) info locals print automatic variables in frame</t>
+  </si>
+  <si>
+    <t>(gdb) info args print function parameters</t>
+  </si>
+  <si>
+    <t>Browsing source</t>
+  </si>
+  <si>
+    <t>*(gdb) list 101 list 10 lines around line 101</t>
+  </si>
+  <si>
+    <t>*(gdb) list 1,10 list lines 1 to 10</t>
+  </si>
+  <si>
+    <t>*(gdb) list main list lines around function</t>
+  </si>
+  <si>
+    <t>*(gdb) list basic.c:main list from another file basic.c</t>
+  </si>
+  <si>
+    <t>*(gdb) list - list previous 10 lines</t>
+  </si>
+  <si>
+    <t>(gdb) list *0x22e4 list source at address</t>
+  </si>
+  <si>
+    <t>(gdb) cd dir change current directory to \fIdir\fR</t>
+  </si>
+  <si>
+    <t>(gdb) pwd print working directory</t>
+  </si>
+  <si>
+    <t>(gdb) search regexpr forward current for regular expression</t>
+  </si>
+  <si>
+    <t>(gdb) reverse-search regexpr backward search for regular expression</t>
+  </si>
+  <si>
+    <t>(gdb) dir dirname add directory to source path</t>
+  </si>
+  <si>
+    <t>(gdb) dir reset source path to nothing</t>
+  </si>
+  <si>
+    <t>(gdb) show directories show source path</t>
+  </si>
+  <si>
+    <t>Browsing Data</t>
+  </si>
+  <si>
+    <t>*(gdb) print expression print expression, added to value history</t>
+  </si>
+  <si>
+    <t>*(gdb) print/x expressionR print in hex</t>
+  </si>
+  <si>
+    <t>(gdb) print array[i]@count artificial array - print array range</t>
+  </si>
+  <si>
+    <t>(gdb) print $ print last value</t>
+  </si>
+  <si>
+    <t>(gdb) print *$-&gt;next print thru list</t>
+  </si>
+  <si>
+    <t>(gdb) print $1 print value 1 from value history</t>
+  </si>
+  <si>
+    <t>(gdb) print ::gx force scope to be global</t>
+  </si>
+  <si>
+    <t>(gdb) print 'basic.c'::gx global scope in named file (&gt;=4.6)</t>
+  </si>
+  <si>
+    <t>(gdb) print/x &amp;main print address of function</t>
+  </si>
+  <si>
+    <t>(gdb) x/countFormatSize address low-level examine command</t>
+  </si>
+  <si>
+    <t>(gdb) x/x &amp;gx print gx in hex</t>
+  </si>
+  <si>
+    <t>(gdb) x/4wx &amp;main print 4 longs at start of \fImain\fR in hex</t>
+  </si>
+  <si>
+    <t>(gdb) x/gf &amp;gd1 print double</t>
+  </si>
+  <si>
+    <t>(gdb) help x show formats for x</t>
+  </si>
+  <si>
+    <t>*(gdb) info locals print local automatics only</t>
+  </si>
+  <si>
+    <t>(gdb) info functions regexp print function names</t>
+  </si>
+  <si>
+    <t>(gdb) info variables regexp print global variable names</t>
+  </si>
+  <si>
+    <t>*(gdb) ptype name print type definition</t>
+  </si>
+  <si>
+    <t>(gdb) whatis expression print type of expression</t>
+  </si>
+  <si>
+    <t>*(gdb) set variable = expression assign value</t>
+  </si>
+  <si>
+    <t>(gdb) display expression display expression result at stop</t>
+  </si>
+  <si>
+    <t>(gdb) undisplay delete displays</t>
+  </si>
+  <si>
+    <t>(gdb) info display show displays</t>
+  </si>
+  <si>
+    <t>(gdb) show values print value history (&gt;= gdb 4.0)</t>
+  </si>
+  <si>
+    <t>(gdb) info history print value history (gdb 3.5)</t>
+  </si>
+  <si>
+    <t>Object File manipulation</t>
+  </si>
+  <si>
+    <t>(gdb) file object load new file for debug (sym+exec)</t>
+  </si>
+  <si>
+    <t>(gdb) file discard sym+exec file info</t>
+  </si>
+  <si>
+    <t>(gdb) symbol-file object load only symbol table</t>
+  </si>
+  <si>
+    <t>(gdb) exec-file object specify object to run (not sym-file)</t>
+  </si>
+  <si>
+    <t>(gdb) core-file core post-mortem debugging</t>
+  </si>
+  <si>
+    <t>Signal Control</t>
+  </si>
+  <si>
+    <t>(gdb) info signals print signal setup</t>
+  </si>
+  <si>
+    <t>(gdb) handle signo actions set debugger actions for signal</t>
+  </si>
+  <si>
+    <t>(gdb) handle INT print print message when signal occurs</t>
+  </si>
+  <si>
+    <t>(gdb) handle INT noprint don't print message</t>
+  </si>
+  <si>
+    <t>(gdb) handle INT stop stop program when signal occurs</t>
+  </si>
+  <si>
+    <t>(gdb) handle INT nostop don't stop program</t>
+  </si>
+  <si>
+    <t>(gdb) handle INT pass allow program to receive signal</t>
+  </si>
+  <si>
+    <t>(gdb) handle INT nopass debugger catches signal; program doesn't</t>
+  </si>
+  <si>
+    <t>(gdb) signal signo continue and send signal to program</t>
+  </si>
+  <si>
+    <t>(gdb) signal 0 continue and send no signal to program</t>
+  </si>
+  <si>
+    <t>Machine-level Debug</t>
+  </si>
+  <si>
+    <t>(gdb) info registers print registers sans floats</t>
+  </si>
+  <si>
+    <t>(gdb) info all-registers print all registers</t>
+  </si>
+  <si>
+    <t>(gdb) print/x $pc print one register</t>
+  </si>
+  <si>
+    <t>(gdb) stepi single step at machine level</t>
+  </si>
+  <si>
+    <t>(gdb) si single step at machine level</t>
+  </si>
+  <si>
+    <t>(gdb) nexti single step (over functions) at machine level</t>
+  </si>
+  <si>
+    <t>(gdb) ni single step (over functions) at machine level</t>
+  </si>
+  <si>
+    <t>(gdb) display/i $pc print current instruction in display</t>
+  </si>
+  <si>
+    <t>(gdb) x/x &amp;gx print variable gx in hex</t>
+  </si>
+  <si>
+    <t>(gdb) info line 22 print addresses for object code for line 22</t>
+  </si>
+  <si>
+    <t>(gdb) info line *0x2c4e print line number of object code at address</t>
+  </si>
+  <si>
+    <t>(gdb) x/10i main disassemble first 10 instructions in \fImain\fR</t>
+  </si>
+  <si>
+    <t>(gdb) disassemble addr dissassemble code for function around addr</t>
+  </si>
+  <si>
+    <t>History Display</t>
+  </si>
+  <si>
+    <t>(gdb) show commands print command history (&gt;= gdb 4.0)</t>
+  </si>
+  <si>
+    <t>(gdb) info editing print command history (gdb 3.5)</t>
+  </si>
+  <si>
+    <t>(gdb) ESC-CTRL-J switch to vi edit mode from emacs edit mode</t>
+  </si>
+  <si>
+    <t>(gdb) set history expansion on turn on c-shell like history</t>
+  </si>
+  <si>
+    <t>(gdb) break class::member set breakpoint on class member. may get menu</t>
+  </si>
+  <si>
+    <t>(gdb) list class::member list member in class</t>
+  </si>
+  <si>
+    <t>(gdb) ptype class print class members</t>
+  </si>
+  <si>
+    <t>(gdb) print *this print contents of this pointer</t>
+  </si>
+  <si>
+    <t>(gdb) rbreak regexpr useful for breakpoint on overloaded member name</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>(gdb) define command ... end define user command</t>
+  </si>
+  <si>
+    <t>*(gdb) RETURN repeat last command</t>
+  </si>
+  <si>
+    <t>*(gdb) shell command args execute shell command</t>
+  </si>
+  <si>
+    <t>*(gdb) source file load gdb commands from file</t>
+  </si>
+  <si>
+    <t>*(gdb) quit quit gdb</t>
+  </si>
+  <si>
+    <t>apt-cache search libname</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1300,8 +1882,57 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia,Palatino,Times,Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1314,8 +1945,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1323,11 +1966,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1335,86 +1994,117 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3238,6 +3928,368 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3790481</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579960BE-F1A6-4076-840F-B94E9C375FB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="6172200"/>
+          <a:ext cx="3752381" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5876925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2914284</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC830A9F-9CAF-4C8D-9C2F-BA9A9583365D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="104775"/>
+          <a:ext cx="2923809" cy="2228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>75761</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC87D2B7-D67F-4E80-842F-D0120486C2F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8524875" y="3528144"/>
+          <a:ext cx="3400425" cy="1976867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>321096</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>102437</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8608B4B7-8E10-4EBF-AD0A-D4ED490A5B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12717780" y="3078480"/>
+          <a:ext cx="6790476" cy="3150437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3131820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338478</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83730</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F36EAD-5718-4534-81DC-90136A7486C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11833860" y="274320"/>
+          <a:ext cx="4895238" cy="723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6035040</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>132909</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>77890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A897F0-E7D2-487F-9C1B-6481342CD9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8679180" y="5760720"/>
+          <a:ext cx="3523809" cy="1723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5706670</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>93082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C7A81C-AFCD-49E9-ADB9-6E4B9CECCF0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2674620" y="5760720"/>
+          <a:ext cx="5676190" cy="2104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3447619</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>73920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ADEDB0-FC73-443F-9E68-0E27ECFEC126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3002280" y="8138160"/>
+          <a:ext cx="3447619" cy="3000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3527,7 +4579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -3895,10 +4947,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="B3:C30"/>
+  <dimension ref="B3:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4062,9 +5114,15 @@
         <v>322</v>
       </c>
     </row>
+    <row r="32" spans="2:3" ht="30">
+      <c r="C32" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4072,11 +5130,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="C3:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="29"/>
     <col min="3" max="3" width="81" style="30" customWidth="1"/>
@@ -4169,7 +5227,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="16.5">
+    <row r="26" spans="3:3">
       <c r="C26" s="31" t="s">
         <v>355</v>
       </c>
@@ -4182,13 +5240,143 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="34.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="88.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="60">
+      <c r="B1" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="45">
+      <c r="B2" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="30">
+      <c r="B4" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="18.75">
+      <c r="B10" s="37" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="18.75">
+      <c r="B11" s="37"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="D36" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4196,7 +5384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4793,7 +5981,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="32"/>
     <col min="3" max="3" width="72.7109375" style="32" customWidth="1"/>
@@ -4952,10 +6140,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B2:C19"/>
+  <dimension ref="B2:C174"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5065,6 +6253,897 @@
       <c r="C19" s="4" t="s">
         <v>324</v>
       </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="43"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="44"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="44" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="44" t="s">
+        <v>410</v>
+      </c>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="44"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="C40"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="C43"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="44" t="s">
+        <v>421</v>
+      </c>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="44" t="s">
+        <v>422</v>
+      </c>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="C49"/>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="C50"/>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="44" t="s">
+        <v>428</v>
+      </c>
+      <c r="C51"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="44"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="44" t="s">
+        <v>433</v>
+      </c>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="44" t="s">
+        <v>436</v>
+      </c>
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="44" t="s">
+        <v>438</v>
+      </c>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="44" t="s">
+        <v>439</v>
+      </c>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="44"/>
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" s="44" t="s">
+        <v>450</v>
+      </c>
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" s="44"/>
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" s="44" t="s">
+        <v>466</v>
+      </c>
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" s="44"/>
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="44" t="s">
+        <v>470</v>
+      </c>
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="44" t="s">
+        <v>476</v>
+      </c>
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="44" t="s">
+        <v>478</v>
+      </c>
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="44" t="s">
+        <v>480</v>
+      </c>
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="44" t="s">
+        <v>482</v>
+      </c>
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="44" t="s">
+        <v>484</v>
+      </c>
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="44" t="s">
+        <v>491</v>
+      </c>
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="44" t="s">
+        <v>492</v>
+      </c>
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="44"/>
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="44" t="s">
+        <v>496</v>
+      </c>
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" s="44"/>
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" s="44" t="s">
+        <v>503</v>
+      </c>
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" s="44" t="s">
+        <v>507</v>
+      </c>
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="44" t="s">
+        <v>508</v>
+      </c>
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="44" t="s">
+        <v>509</v>
+      </c>
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" s="44" t="s">
+        <v>511</v>
+      </c>
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" s="44"/>
+      <c r="C141"/>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" s="44" t="s">
+        <v>512</v>
+      </c>
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="C147"/>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="C149"/>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="C151"/>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="C155"/>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="44"/>
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="C157"/>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="C158"/>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="C159"/>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="C160"/>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="C161"/>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="C162"/>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="C163"/>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="C165"/>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="44"/>
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" s="44" t="s">
+        <v>537</v>
+      </c>
+      <c r="C169"/>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="C171"/>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" s="44" t="s">
+        <v>541</v>
+      </c>
+      <c r="C173"/>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="C174"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5112,173 +7191,237 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B3:C36"/>
+  <dimension ref="B3:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="99" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="99" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="3:4">
+      <c r="C3" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="3:4">
+      <c r="C4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="3:4">
+      <c r="C5" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="3:4">
+      <c r="C6" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="3:4">
+      <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="3:4">
+      <c r="C8" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="1" t="s">
+    <row r="9" spans="3:4">
+      <c r="C9" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="3:4">
+      <c r="C11" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="3:4">
+      <c r="C12" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="3:4">
+      <c r="D13" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="3:4">
+      <c r="C16" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="23" t="s">
+    <row r="17" spans="3:5">
+      <c r="C17" s="23" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="23" t="s">
+    <row r="18" spans="3:5">
+      <c r="C18" s="23" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="23" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="23" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="3:5" ht="30">
+      <c r="C20" s="23" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="23" t="s">
+      <c r="D20" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="23" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="23" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="3:5">
+      <c r="C24" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="3:5">
+      <c r="C25" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="3:5">
+      <c r="C26" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="3:5">
+      <c r="C27" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
+    <row r="29" spans="3:5">
+      <c r="C29" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1" t="s">
+    <row r="30" spans="3:5">
+      <c r="C30" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="3:5">
+      <c r="C32" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="1" t="s">
+    <row r="33" spans="2:4">
+      <c r="C33" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="2:4">
+      <c r="C34" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="30">
-      <c r="B36" s="1" t="s">
+    <row r="36" spans="2:4" ht="30">
+      <c r="C36" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>341</v>
       </c>
     </row>
+    <row r="38" spans="2:4">
+      <c r="B38" t="s">
+        <v>390</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="C39" s="39" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="C42" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>397</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="C46" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="C48" s="42" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C41" r:id="rId1" xr:uid="{873E1627-6D65-4803-BBC2-B09D651E2C11}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="B1:D29"/>
+  <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -5287,43 +7430,58 @@
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="79" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="73.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:6">
       <c r="B1" s="1"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:6">
       <c r="C3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="F3" s="33" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:6">
       <c r="C5" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="F5" s="33" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" thickBot="1">
+      <c r="F6" s="33" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1">
       <c r="C7" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="F7" s="34" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="C8" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30">
+    <row r="9" spans="2:6" ht="30">
       <c r="C9" s="1" t="s">
         <v>249</v>
       </c>
@@ -5331,12 +7489,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:6">
       <c r="C10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30">
+    <row r="11" spans="2:6" ht="30">
       <c r="C11" s="1" t="s">
         <v>247</v>
       </c>
@@ -5344,17 +7502,17 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:6">
       <c r="C12" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:6">
       <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:6">
       <c r="C16" s="1" t="s">
         <v>243</v>
       </c>
